--- a/boatBoot/src/main/resources/static/public/SamoleData.xlsx
+++ b/boatBoot/src/main/resources/static/public/SamoleData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingqi/Documents/GitHub/BoatDataMng/boatBoot/src/main/resources/static/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dingqi/Documents/GitHub/BoatDataMng/boatBoot/src/main/resources/static/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="声管小样数据" sheetId="4" r:id="rId1"/>
     <sheet name="水罐大样数据" sheetId="2" r:id="rId2"/>
     <sheet name="缩比模型数据" sheetId="3" r:id="rId3"/>
+    <sheet name="scaleData" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>样品名称</t>
   </si>
@@ -280,12 +281,151 @@
     <t>温度/︒</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>外场试验模型名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中尺度模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>壳体类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层壳体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>长5.4m，直径3.2m</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字文字文字文字文字文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验地点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验时长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水域深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷设方案名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外壳外表面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外壳内表面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内壳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肋骨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光壳声目标强度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率/Hz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷瓦声目标强度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光壳辐射声功率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射声功率插入损失</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>声目标强度降低量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷瓦辐射声功率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +470,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +550,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1295,7 +1462,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2229,7 +2396,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3113,4 +3280,1209 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6">
+        <v>201708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21.066067085516597</v>
+      </c>
+      <c r="D21" s="16">
+        <f>B21-C21</f>
+        <v>1.9339329144834032</v>
+      </c>
+      <c r="E21">
+        <v>116</v>
+      </c>
+      <c r="F21" s="16">
+        <v>106.23740934565893</v>
+      </c>
+      <c r="G21" s="16">
+        <f>E21-F21</f>
+        <v>9.7625906543410679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16">
+        <v>21.020778551427171</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" ref="D22:D60" si="0">B22-C22</f>
+        <v>2.9792214485728294</v>
+      </c>
+      <c r="E22">
+        <v>117</v>
+      </c>
+      <c r="F22" s="16">
+        <v>107.28553238241423</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" ref="G22:G60" si="1">E22-F22</f>
+        <v>9.7144676175857683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16">
+        <v>18.217422579096251</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>2.782577420903749</v>
+      </c>
+      <c r="E23">
+        <v>114</v>
+      </c>
+      <c r="F23" s="16">
+        <v>106.29631523655067</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="1"/>
+        <v>7.7036847634493313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24" s="16">
+        <v>20.775787302253715</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2242126977462853</v>
+      </c>
+      <c r="E24">
+        <v>118</v>
+      </c>
+      <c r="F24" s="16">
+        <v>107.4980282369897</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="1"/>
+        <v>10.501971763010303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16">
+        <v>18.558689054759697</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>4.4413109452403035</v>
+      </c>
+      <c r="E25">
+        <v>116</v>
+      </c>
+      <c r="F25" s="16">
+        <v>106.77648708269268</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
+        <v>9.2235129173073176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="16">
+        <v>20.312397875297407</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>3.6876021247025932</v>
+      </c>
+      <c r="E26">
+        <v>117</v>
+      </c>
+      <c r="F26" s="16">
+        <v>106.92109527815829</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="1"/>
+        <v>10.07890472184171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27" s="16">
+        <v>16.682971707913122</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>4.3170282920868779</v>
+      </c>
+      <c r="E27">
+        <v>114</v>
+      </c>
+      <c r="F27" s="16">
+        <v>104.89390742903028</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="1"/>
+        <v>9.1060925709697216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16">
+        <v>21.112668303165481</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>3.8873316968345186</v>
+      </c>
+      <c r="E28">
+        <v>118</v>
+      </c>
+      <c r="F28" s="16">
+        <v>107.98456780384635</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="1"/>
+        <v>10.015432196153654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>450</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="16">
+        <v>21.761758080101934</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2382419198980656</v>
+      </c>
+      <c r="E29">
+        <v>119</v>
+      </c>
+      <c r="F29" s="16">
+        <v>108.00743466010996</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="1"/>
+        <v>10.992565339890035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" s="16">
+        <v>20.389995394697774</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6100046053022261</v>
+      </c>
+      <c r="E30">
+        <v>115</v>
+      </c>
+      <c r="F30" s="16">
+        <v>106.05883760594952</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="1"/>
+        <v>8.9411623940504796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>550</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="16">
+        <v>15.599598510478314</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4004014895216859</v>
+      </c>
+      <c r="E31">
+        <v>114</v>
+      </c>
+      <c r="F31" s="16">
+        <v>104.36907558652739</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="1"/>
+        <v>9.6309244134726129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>600</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" s="16">
+        <v>14.404408342379904</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>3.5955916576200959</v>
+      </c>
+      <c r="E32">
+        <v>111</v>
+      </c>
+      <c r="F32" s="16">
+        <v>103.58830668034668</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="1"/>
+        <v>7.4116933196533239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>650</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33" s="16">
+        <v>16.077341550296488</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>2.922658449703512</v>
+      </c>
+      <c r="E33">
+        <v>112</v>
+      </c>
+      <c r="F33" s="16">
+        <v>104.69926425302705</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" si="1"/>
+        <v>7.300735746972947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>700</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34" s="16">
+        <v>11.837275850468064</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>5.162724149531936</v>
+      </c>
+      <c r="E34">
+        <v>110</v>
+      </c>
+      <c r="F34" s="16">
+        <v>103.52995739471052</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="1"/>
+        <v>6.4700426052894784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>750</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" s="16">
+        <v>13.947522668941108</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>4.052477331058892</v>
+      </c>
+      <c r="E35">
+        <v>111</v>
+      </c>
+      <c r="F35" s="16">
+        <v>104.74272277529612</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="1"/>
+        <v>6.2572772247038841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>800</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" s="16">
+        <v>13.213092797339518</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>3.7869072026604815</v>
+      </c>
+      <c r="E36">
+        <v>110</v>
+      </c>
+      <c r="F36" s="16">
+        <v>102.3690810105517</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" si="1"/>
+        <v>7.630918989448304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>850</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37" s="16">
+        <v>13.435548953000721</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>4.5644510469992792</v>
+      </c>
+      <c r="E37">
+        <v>111</v>
+      </c>
+      <c r="F37" s="16">
+        <v>102.98142008374498</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0185799162550211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>900</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16">
+        <v>13.145314638787625</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8546853612123755</v>
+      </c>
+      <c r="E38">
+        <v>108</v>
+      </c>
+      <c r="F38" s="16">
+        <v>103.19673015748373</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" si="1"/>
+        <v>4.8032698425162721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>950</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39" s="16">
+        <v>15.67091382041095</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3290861795890496</v>
+      </c>
+      <c r="E39">
+        <v>112</v>
+      </c>
+      <c r="F39" s="16">
+        <v>105.29244544104293</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>6.7075545589570709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1000</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="16">
+        <v>12.799550315533383</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2004496844666175</v>
+      </c>
+      <c r="E40">
+        <v>110</v>
+      </c>
+      <c r="F40" s="16">
+        <v>103.05455091238156</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" si="1"/>
+        <v>6.9454490876184423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1100</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41" s="16">
+        <v>15.063504730666631</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9364952693333688</v>
+      </c>
+      <c r="E41">
+        <v>111</v>
+      </c>
+      <c r="F41" s="16">
+        <v>104.58438834229052</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="1"/>
+        <v>6.4156116577094764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1200</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42" s="16">
+        <v>9.6825003403413969</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="0"/>
+        <v>5.3174996596586031</v>
+      </c>
+      <c r="E42">
+        <v>108</v>
+      </c>
+      <c r="F42" s="16">
+        <v>102.51990714832071</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="1"/>
+        <v>5.4800928516792879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1300</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16">
+        <v>15.989675876328393</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="0"/>
+        <v>3.010324123671607</v>
+      </c>
+      <c r="E43">
+        <v>112</v>
+      </c>
+      <c r="F43" s="16">
+        <v>103.57571085476135</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="1"/>
+        <v>8.4242891452386459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1400</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" s="16">
+        <v>17.171555511346938</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8284444886530622</v>
+      </c>
+      <c r="E44">
+        <v>113</v>
+      </c>
+      <c r="F44" s="16">
+        <v>105.20831246223308</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="1"/>
+        <v>7.7916875377669186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1500</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45" s="16">
+        <v>14.186789678207344</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8132103217926563</v>
+      </c>
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="F45" s="16">
+        <v>102.45625758714209</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5437424128579096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1600</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46" s="16">
+        <v>13.498860968187033</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="0"/>
+        <v>4.5011390318129667</v>
+      </c>
+      <c r="E46">
+        <v>111</v>
+      </c>
+      <c r="F46" s="16">
+        <v>103.09671710395398</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9032828960460222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1700</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+      <c r="C47" s="16">
+        <v>14.288742092003501</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>2.7112579079964991</v>
+      </c>
+      <c r="E47">
+        <v>110</v>
+      </c>
+      <c r="F47" s="16">
+        <v>103.50941986972521</v>
+      </c>
+      <c r="G47" s="16">
+        <f t="shared" si="1"/>
+        <v>6.4905801302747932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1800</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48" s="16">
+        <v>13.092793193110447</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="0"/>
+        <v>4.9072068068895529</v>
+      </c>
+      <c r="E48">
+        <v>111</v>
+      </c>
+      <c r="F48" s="16">
+        <v>103.17031418806302</v>
+      </c>
+      <c r="G48" s="16">
+        <f t="shared" si="1"/>
+        <v>7.829685811936983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1900</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16">
+        <v>12.161987891984131</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8380121080158691</v>
+      </c>
+      <c r="E49">
+        <v>108</v>
+      </c>
+      <c r="F49" s="16">
+        <v>102.6915451388423</v>
+      </c>
+      <c r="G49" s="16">
+        <f t="shared" si="1"/>
+        <v>5.3084548611576992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2000</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50" s="16">
+        <v>11.822103535782279</v>
+      </c>
+      <c r="D50" s="16">
+        <f t="shared" si="0"/>
+        <v>5.1778964642177208</v>
+      </c>
+      <c r="E50">
+        <v>110</v>
+      </c>
+      <c r="F50" s="16">
+        <v>103.67003184733056</v>
+      </c>
+      <c r="G50" s="16">
+        <f t="shared" si="1"/>
+        <v>6.3299681526694371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2100</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51" s="16">
+        <v>13.770494619315183</v>
+      </c>
+      <c r="D51" s="16">
+        <f t="shared" si="0"/>
+        <v>2.2295053806848166</v>
+      </c>
+      <c r="E51">
+        <v>109</v>
+      </c>
+      <c r="F51" s="16">
+        <v>102.11101610660013</v>
+      </c>
+      <c r="G51" s="16">
+        <f t="shared" si="1"/>
+        <v>6.8889838933998675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>2200</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52" s="16">
+        <v>9.5569995956208942</v>
+      </c>
+      <c r="D52" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4430004043791058</v>
+      </c>
+      <c r="E52">
+        <v>108</v>
+      </c>
+      <c r="F52" s="16">
+        <v>102.95875193836757</v>
+      </c>
+      <c r="G52" s="16">
+        <f t="shared" si="1"/>
+        <v>5.0412480616324302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2300</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53" s="16">
+        <v>13.042601996545844</v>
+      </c>
+      <c r="D53" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9573980034541556</v>
+      </c>
+      <c r="E53">
+        <v>109</v>
+      </c>
+      <c r="F53" s="16">
+        <v>102.08519873914828</v>
+      </c>
+      <c r="G53" s="16">
+        <f t="shared" si="1"/>
+        <v>6.9148012608517178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2400</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16">
+        <v>12.002134141614739</v>
+      </c>
+      <c r="D54" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9978658583852607</v>
+      </c>
+      <c r="E54">
+        <v>108</v>
+      </c>
+      <c r="F54" s="16">
+        <v>101.44503217640562</v>
+      </c>
+      <c r="G54" s="16">
+        <f t="shared" si="1"/>
+        <v>6.5549678235943816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2500</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55" s="16">
+        <v>9.2730345985923126</v>
+      </c>
+      <c r="D55" s="16">
+        <f t="shared" si="0"/>
+        <v>2.7269654014076874</v>
+      </c>
+      <c r="E55">
+        <v>105</v>
+      </c>
+      <c r="F55" s="16">
+        <v>100.91820412751457</v>
+      </c>
+      <c r="G55" s="16">
+        <f t="shared" si="1"/>
+        <v>4.0817958724854293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>2600</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56" s="16">
+        <v>7.8914798148630094</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" si="0"/>
+        <v>5.1085201851369906</v>
+      </c>
+      <c r="E56" s="1">
+        <v>106</v>
+      </c>
+      <c r="F56" s="16">
+        <v>100.62644533558283</v>
+      </c>
+      <c r="G56" s="16">
+        <f t="shared" si="1"/>
+        <v>5.3735546644171706</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2700</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57" s="16">
+        <v>8.3728674552352249</v>
+      </c>
+      <c r="D57" s="16">
+        <f t="shared" si="0"/>
+        <v>2.6271325447647751</v>
+      </c>
+      <c r="E57">
+        <v>104</v>
+      </c>
+      <c r="F57" s="16">
+        <v>100.58247116834559</v>
+      </c>
+      <c r="G57" s="16">
+        <f t="shared" si="1"/>
+        <v>3.4175288316544084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2800</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58" s="16">
+        <v>9.537079382062343</v>
+      </c>
+      <c r="D58" s="16">
+        <f t="shared" si="0"/>
+        <v>2.462920617937657</v>
+      </c>
+      <c r="E58">
+        <v>105</v>
+      </c>
+      <c r="F58" s="16">
+        <v>101.75021906490862</v>
+      </c>
+      <c r="G58" s="16">
+        <f t="shared" si="1"/>
+        <v>3.2497809350913798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>2900</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="C59" s="16">
+        <v>10.023158992735867</v>
+      </c>
+      <c r="D59" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9768410072641327</v>
+      </c>
+      <c r="E59">
+        <v>106</v>
+      </c>
+      <c r="F59" s="16">
+        <v>102.14514868709027</v>
+      </c>
+      <c r="G59" s="16">
+        <f t="shared" si="1"/>
+        <v>3.8548513129097302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>3000</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60" s="16">
+        <v>8.6881229948168563</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3118770051831437</v>
+      </c>
+      <c r="E60">
+        <v>105</v>
+      </c>
+      <c r="F60" s="16">
+        <v>101.37773180877834</v>
+      </c>
+      <c r="G60" s="16">
+        <f t="shared" si="1"/>
+        <v>3.6222681912216643</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>